--- a/data/pyrobot.xlsx
+++ b/data/pyrobot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavib\Pythonpro\Demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D78929-0649-442D-8173-47357818832D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA379E0-B7E6-4CC5-A07D-F0ACEFC72BFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="375" windowWidth="15375" windowHeight="7875" xr2:uid="{C696B1D5-4421-4B1C-A2A6-9420736A8863}"/>
+    <workbookView xWindow="3105" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{C696B1D5-4421-4B1C-A2A6-9420736A8863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>${username}</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>bharat</t>
+  </si>
+  <si>
+    <t>${browser}</t>
+  </si>
+  <si>
+    <t>${link}</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
   </si>
 </sst>
 </file>
@@ -86,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,26 +109,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,50 +460,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A36DC8-F3F3-4BDF-8976-A129ABFDE37F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
@@ -481,8 +529,10 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{1E97F9FC-C985-42E0-9806-C044E63000BC}"/>
     <hyperlink ref="B2" r:id="rId2" display="gaitri@99" xr:uid="{4771E36E-851E-427C-BB0A-D51BB9D3B880}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{D22CD3C6-4943-49CD-92CE-EBED3F40490B}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{D28ABC91-429B-42A3-AA53-E616380C9D95}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{D9CF07D5-6ECF-45CD-8070-6024D4630FDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>